--- a/config_11.17/active_daily_task_info_config.xlsx
+++ b/config_11.17/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -601,26 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5000小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万小游戏币，玩具锤*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5万金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万金币，1万小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2万金币，2万小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_task_fish_daily_1_2_no_cps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,14 +721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x10000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x20000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水果消消乐</t>
   </si>
   <si>
@@ -764,22 +736,6 @@
     <t>水果消消乐累计消除西瓜200个</t>
   </si>
   <si>
-    <t>"x2000","x5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000","x5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x20000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水果消消乐累计消除BAR100个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,19 +748,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x10000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x20000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000","x10"</t>
+    <t>"x500","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x3000","x30"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"x3000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000小游戏币，玩具锤*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000金币，5000小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000万金币，5000小游戏币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1331,19 +1331,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1351,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E2">
         <v>13000</v>
@@ -1368,13 +1368,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E3">
         <v>13001</v>
@@ -1640,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C8" s="9">
         <v>12519</v>
@@ -2490,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2548,22 +2548,22 @@
         <v>12600</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>69</v>
@@ -2578,22 +2578,22 @@
         <v>12601</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>69</v>
@@ -2608,22 +2608,22 @@
         <v>12602</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>69</v>
@@ -2638,22 +2638,22 @@
         <v>12603</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>69</v>
@@ -2668,22 +2668,22 @@
         <v>12604</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>69</v>
@@ -2698,22 +2698,22 @@
         <v>12605</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>69</v>
@@ -2728,22 +2728,22 @@
         <v>12606</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>69</v>
@@ -2758,22 +2758,22 @@
         <v>12607</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>69</v>
@@ -2788,22 +2788,22 @@
         <v>12608</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>69</v>
@@ -2818,22 +2818,22 @@
         <v>12609</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="I11" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>69</v>
@@ -2848,22 +2848,22 @@
         <v>12610</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>69</v>
@@ -2878,22 +2878,22 @@
         <v>12611</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>69</v>
@@ -2908,22 +2908,22 @@
         <v>12612</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>69</v>
@@ -2938,22 +2938,22 @@
         <v>12613</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>69</v>
@@ -2970,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -3006,7 +3006,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
@@ -3020,7 +3020,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
@@ -3034,7 +3034,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3048,7 +3048,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3062,7 +3062,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
